--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45947.57145833333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45393</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45982.57236111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45041.52760416667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45748.58319444444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>44706.44454861111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45798.57554398148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44523.6453125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45798.57803240741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45425.6449537037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45614.65710648148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>46030.29943287037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45569</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45629.87905092593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44826</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45972.61453703704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>46026</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45992.6877662037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45994.72599537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45994.71618055556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>45632.56211805555</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>46043.50877314815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>46045.37459490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45205</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>46044.33737268519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44729</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>46029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>46052.4909375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>46052.64486111111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>44510.54027777778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44783.76981481481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44292.69246527777</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44292</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>44686</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44508.56807870371</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44326.55663194445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44524.6865625</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44637</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44265.5718287037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44824</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44837</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44740</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44616</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>44823.53434027778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>44740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44292</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44503.61028935185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>44446.55512731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44847</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44823</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44841</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>44293.66891203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44867.57646990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>44265.56106481481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44340.32287037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44783.73983796296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44826</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44820.55082175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44302</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44490.61769675926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44551.56446759259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44837.31979166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44698</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44663.49115740741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44663.55478009259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44823</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44748</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44698.68241898148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44384</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44392</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44491.69429398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45558</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44750</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45632.33841435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>44907.44679398148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>45597.60057870371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>45617.6917824074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>45267.92671296297</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>45107.55283564814</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45428.37322916667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45764.45541666666</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45764.46203703704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>45748.36497685185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>45749.38613425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>45636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45251</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>45699.55270833334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>45510.42049768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>45471.44736111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>44937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44846</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>45278.41434027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>45636.43966435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>45111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44992.61489583334</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>45443.55751157407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45652</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45665</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>45365.55339120371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45615.75956018519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>45750.59752314815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45750.60038194444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45432.32243055556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45548.82506944444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45595.50841435185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44776</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>45884.42145833333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>44384</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>45597.59409722222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>45597.63175925926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45798.58113425926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44420.66540509259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45799.65690972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45643.28773148148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>44665</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>45545</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>45545.38399305556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45428.48818287037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>45252.63642361111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45616.62708333333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45212</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>45805.5902199074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>45264.66268518518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45805.48078703704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>45272</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45811.57541666667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>45799.65251157407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>45632.35192129629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44883</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>45810.61028935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>45397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>45889.6340625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44795.59475694445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>45891.49655092593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>45762.70567129629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>45891.46103009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45425</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>45425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>45632.46930555555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>45891.61613425926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>45812.55133101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>45891.47790509259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>45890.33939814815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>45890.37798611111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>45895.55916666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>45771.44474537037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>45824.70642361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>45894.40082175926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>45895.56410879629</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>45251.50232638889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45894.61478009259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>45896.50347222222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>45574</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>45817.59530092592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>45896.40668981482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>45898.58877314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44846</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45899.67356481482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>45762</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>45821.44332175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45069.90076388889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45188</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45188</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45673.53710648148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45905.50929398148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45904.59408564815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45905.38579861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45905</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45905.52456018519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45905.54800925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45792.39993055556</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45905.46118055555</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45824.6874537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45824.69475694445</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>45257.58369212963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>45008.61673611111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45911.66398148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45496.64633101852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45825.93572916667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45911.35146990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45911.32771990741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>45670</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>45915.60914351852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>45826.47090277778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>45826.60596064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45108.92454861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45108.92465277778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45825.94304398148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>45331.4727662037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>45257.44179398148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>45257.46166666667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>45919.55409722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>45600.58967592593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>45670</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>45636.36251157407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>45219</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45891.60927083333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>45230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45223.78762731481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>45632.45820601852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44812</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45107.54129629629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>45839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45084</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45485.55846064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>45929.2461574074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>45929.62456018518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>45929.65726851852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44543.34858796297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>45835.44179398148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45930</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45972.60929398148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45841.40766203704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>44895</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44757.75127314815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45936.41565972222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45936.43376157407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45639.56792824074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45936.41141203704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>45841.42106481481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>45937.40071759259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>45937.63039351852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>45433.39725694444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>45342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45526.72263888889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44856.47353009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45922.40482638889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45841.41876157407</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45939</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45705.58496527778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45436.6455324074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45698.44600694445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45842.6433912037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45943.34504629629</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45817</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45461</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45842.64204861111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45945.6490162037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45945.65640046296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45846.26282407407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>45944.30420138889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>45215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>45947.55429398148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>45847.47710648148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>45947.5749074074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>45632.36650462963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>45632.43130787037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45632.44497685185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45947.58068287037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45848.37403935185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45848.393125</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45636.4278125</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45936.41883101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45534.40605324074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45951.25780092592</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44740.703125</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45632.57706018518</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45860.44288194444</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45863.35944444445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45863.35443287037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45433.39193287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44662.9243287037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45223.77371527778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45223.79653935185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45747.45960648148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45183.92149305555</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45867.41916666667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>45342</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45954.48731481482</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45811.58194444444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45957.61104166666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45265.63185185185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45957.6062962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45957.56458333333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45440.70765046297</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>45580</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>45597.58377314815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>45597.5980324074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>44237.32259259259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45875.36291666667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45040.9262037037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45875.37350694444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45875.37060185185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>45254</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44837.67238425926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45562.59310185185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>45393.69122685185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>45960.69895833333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>45960</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>45876.68149305556</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>45960.63787037037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45960.43071759259</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>45800.62809027778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>45243</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45961.39596064815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45960.32569444444</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>45960.64208333333</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>45879.42443287037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>45964.67049768518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>45093.62740740741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44274.30858796297</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>45677.68695601852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>45879.45802083334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>45967.59489583333</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>45966.39697916667</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>45966.51038194444</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>45967.68291666666</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45821.54072916666</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>45966.4406712963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>45545</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>45966.37739583333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>45510.39054398148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>45754.56719907407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>45971.43109953704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45398.43495370371</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45883.58484953704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>45971.45069444444</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>45972.4805324074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>45972.54152777778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>45883.32168981482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45750.60393518519</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45975.58508101852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45426</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45597.62274305556</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>45978.63996527778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45884.43402777778</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>45961</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45979.41935185185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>45978.64606481481</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>45979.55052083333</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45978.64278935185</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>45978</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>45761.60195601852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45615.75822916667</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>45754.52270833333</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>45748.3718287037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45985.3565162037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>46024.8162962963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45982.51212962963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>45670.6528587963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>45526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>46027.71767361111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>46027.72077546296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>45597.34137731481</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>46027.69054398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>46024.82778935185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>46024.84138888889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>45985.56396990741</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>45982.54618055555</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>46024.4025</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44938.60140046296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>46024.46342592593</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>45985.68675925926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45985.6922337963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>46024.45108796296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>46024.45932870371</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45706.60534722222</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>46029.34428240741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>45735</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>45600.61165509259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>46030.59027777778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45548.8325462963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45062.62559027778</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>45170</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>45989.52212962963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45554.41347222222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>45394.55886574074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45327</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45707</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>46031.64197916666</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24015,7 +24015,7 @@
         <v>46031.64569444444</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24072,7 +24072,7 @@
         <v>46030.56107638889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24129,7 +24129,7 @@
         <v>46030.60059027778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>46031.64481481481</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>46030.59501157407</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>46031.64355324074</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45992.65472222222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45992.685625</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45750.5878125</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>46035.6619212963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>46034.59444444445</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45992.58619212963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24709,7 +24709,7 @@
         <v>45992.58737268519</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>46035.65548611111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24823,7 +24823,7 @@
         <v>46035.68237268519</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24880,7 +24880,7 @@
         <v>45992.47364583334</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>46034.38321759259</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>46035.66672453703</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>46037.59212962963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>46037.59346064815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>45637</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44287</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>46036.57084490741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45461.59956018518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>46037.59047453704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>45994.67194444445</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>46036.5197800926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>46036.52355324074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>46030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>46036.5737962963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44897.49520833333</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45527.5432175926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45995</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45995.61873842592</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>46024</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45999.6430787037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44651.41497685185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45985.34894675926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>46037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>45999.64283564815</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45028.64403935185</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>46036</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45999.64253472222</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>46041.3713425926</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44508.57627314814</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>46041.66802083333</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44417.84194444444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44649.58061342593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45748.45584490741</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45012</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>46000.27725694444</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45373.53380787037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27004,7 +27004,7 @@
         <v>46043.61354166667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27061,7 +27061,7 @@
         <v>46043.61600694444</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>46043.46753472222</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45607.68255787037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45628</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44609.49275462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>46001.53202546296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45632.31140046296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>46001.47506944444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>45622.70282407408</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>45622.70284722222</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45750.58597222222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>46043.5499537037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45602.60487268519</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>46044.35980324074</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45561</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>46045.53640046297</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>46044.37353009259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>46045.55574074074</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>46002.61459490741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>46044.44237268518</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>46026</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>46035</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>46022</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>46027.65784722222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>46045.53200231482</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>46044.35633101852</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>46044.50009259259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>46044.3625925926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>46024.51739583333</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>46024</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>46002.60978009259</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>46002.61373842593</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>46043.94076388889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>46044.33540509259</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>46024.43391203704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>46024.4765625</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45747.58306712963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45762.63586805556</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>46048.69645833333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>46029</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45202</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>46030.29105324074</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>46049.5827662037</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45398</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45604.60453703703</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>46007.44385416667</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>46049.57107638889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45775.30450231482</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>45764.47677083333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>46049.57929398148</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>46048.44855324074</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45467.57811342592</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>45027</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>46029</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>46026</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>46050.38663194444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>46050.39603009259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>46008.31300925926</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>46026</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>46026</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>45210</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>46026</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>45796</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45574.54585648148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>46026</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>46008.32385416667</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>46052.48829861111</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>45056</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>46055.49167824074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>45621</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>45098</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>46055.49300925926</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>46052.49340277778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>46055.65849537037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>46055.59658564815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44963.64210648148</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45567.67518518519</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>46052.7244212963</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>45446.42173611111</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>46057.45179398148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>46056.46346064815</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45750</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>46057.56375</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45750.65936342593</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>46034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>46034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>46057.64920138889</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>46057.44378472222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>46042</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>44957</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>46034</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45069</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45251.49936342592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>46057.64561342593</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>46057.65163194444</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>46057.64260416666</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>46041</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>46056.65689814815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>46041</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>46058.37325231481</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45246.78600694444</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44546.58009259259</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>46043</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45295.47097222223</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>46058.89159722222</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45757.57515046297</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>46059.35721064815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33267,7 +33267,7 @@
         <v>46042</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>46055</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>45597.33159722222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>45632.42275462963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>46058.37604166667</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45062.64236111111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>46043</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>46055</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>46055</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>46058.56152777778</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44370.49378472222</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45113.90611111111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44580.92254629629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>45636.34581018519</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>45433.38668981481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>45593.65616898148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>45425.49216435185</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>45588.59930555556</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>45470.3715162037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>45565.60444444444</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>45566.87280092593</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>45707</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44897.91680555556</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44869.53126157408</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45246</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34764,7 +34764,7 @@
         <v>45616.5928125</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>45510.41490740741</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45222.33164351852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45324.62356481481</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45219</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45597.6052662037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>45260.5078587963</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>45470.57621527778</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>45492</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>45754.53108796296</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>45609</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>45677.43975694444</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>45243</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44336.60329861111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>45041.3624537037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>45267.48489583333</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>45597.61638888889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>45597.62934027778</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>45215</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>45580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45560.63702546297</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36033,7 +36033,7 @@
         <v>45560.63703703704</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>45107.55921296297</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36147,7 +36147,7 @@
         <v>44460</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36204,7 +36204,7 @@
         <v>44992</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         <v>44760.47226851852</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36318,7 +36318,7 @@
         <v>45491.34340277778</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36375,7 +36375,7 @@
         <v>45764.46673611111</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>45764.48153935185</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36499,7 +36499,7 @@
         <v>45278.6055324074</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36556,7 +36556,7 @@
         <v>44330.69190972222</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36613,7 +36613,7 @@
         <v>45453</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36670,7 +36670,7 @@
         <v>44739.47634259259</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36727,7 +36727,7 @@
         <v>45205.3875</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>45680.5480787037</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36841,7 +36841,7 @@
         <v>45597.63407407407</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44582.27614583333</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45747.49863425926</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>45544.36217592593</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37069,7 +37069,7 @@
         <v>45093.62233796297</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37126,7 +37126,7 @@
         <v>45722.4603125</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44956</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>45560.63701388889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>45639</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44992.60256944445</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>45477.54754629629</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>45492.92803240741</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>45492</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>45275.56056712963</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>45096.47592592592</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>45632.28496527778</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37758,7 +37758,7 @@
         <v>45231</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37820,7 +37820,7 @@
         <v>45108</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>45476</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37934,7 +37934,7 @@
         <v>45597.35850694445</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37991,7 +37991,7 @@
         <v>45432.44259259259</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38048,7 +38048,7 @@
         <v>44823.69696759259</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
         <v>45602.53582175926</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38162,7 +38162,7 @@
         <v>45770.47952546296</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38219,7 +38219,7 @@
         <v>45108.92460648148</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38276,7 +38276,7 @@
         <v>45609.5986574074</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38333,7 +38333,7 @@
         <v>45595.50844907408</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38390,7 +38390,7 @@
         <v>45771.43126157407</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38447,7 +38447,7 @@
         <v>45051.44525462963</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>45771.62862268519</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>45590.48979166667</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>45705.5609375</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38680,7 +38680,7 @@
         <v>44348.48729166666</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38737,7 +38737,7 @@
         <v>45327</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>45435.6531712963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38851,7 +38851,7 @@
         <v>45708.54879629629</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38908,7 +38908,7 @@
         <v>45534.43899305556</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>45594.42071759259</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>45636.32105324074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>45134</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45764.46388888889</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39203,7 +39203,7 @@
         <v>45113.44694444445</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39260,7 +39260,7 @@
         <v>45638.68046296296</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39317,7 +39317,7 @@
         <v>45035</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>45600.6139699074</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>45593.60655092593</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>45749.39025462963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>45777.4344212963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>45779.57425925926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45782.35456018519</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45782.60820601852</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45782.65975694444</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45544.46974537037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45588.40865740741</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45149.45503472222</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45420.65974537037</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>45791.55123842593</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>45791.5553125</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45791.60163194445</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40254,7 +40254,7 @@
         <v>45791.64822916667</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40316,7 +40316,7 @@
         <v>45791.44717592592</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40373,7 +40373,7 @@
         <v>45793.58898148148</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40435,7 +40435,7 @@
         <v>45792.6493287037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40497,7 +40497,7 @@
         <v>45797.49787037037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40559,7 +40559,7 @@
         <v>44698</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40616,7 +40616,7 @@
         <v>45797.49285879629</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40678,7 +40678,7 @@
         <v>45527.54472222222</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40735,7 +40735,7 @@
         <v>45442.64026620371</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40792,7 +40792,7 @@
         <v>45797</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40854,7 +40854,7 @@
         <v>45797.67623842593</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40916,7 +40916,7 @@
         <v>45467.55809027778</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45947.57145833333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45393</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45982.57236111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45041.52760416667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45748.58319444444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>44706.44454861111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45798.57554398148</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44523.6453125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45798.57803240741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45425.6449537037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45614.65710648148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>46030.29943287037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45569</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45629.87905092593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44826</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45972.61453703704</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>45509</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>46026</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45992.6877662037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45994.72599537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45994.71618055556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>45632.56211805555</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>46043.50877314815</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>46045.37459490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45205</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>46044.33737268519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         <v>44729</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>46029</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>46052.4909375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>46052.64486111111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         <v>44510.54027777778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44783.76981481481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44292.69246527777</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44292</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>44686</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44419</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44267</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44508.56807870371</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44326.55663194445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44524.6865625</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44637</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44265.5718287037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44824</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         <v>44837</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>44740</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         <v>44616</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>44823.53434027778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>44740</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44292</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>44503.61028935185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>44446.55512731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44847</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44823</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44841</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>44293.66891203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44867.57646990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>44265.56106481481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44546</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44340.32287037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44783.73983796296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>44826</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44820.55082175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>44302</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44490.61769675926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>44551.56446759259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44837.31979166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44698</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44663.49115740741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44663.55478009259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44823</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>44838</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>44748</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44698.68241898148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44384</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44392</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44491.69429398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45558</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44750</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45632.33841435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>44907.44679398148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>45597.60057870371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>45617.6917824074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>45267.92671296297</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44881</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>45107.55283564814</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45428.37322916667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45764.45541666666</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45764.46203703704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>45748.36497685185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>45749.38613425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>45636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>45251</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>45699.55270833334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>45510.42049768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>45471.44736111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>44937</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>44846</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>45278.41434027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>45636.43966435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>45111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>44992.61489583334</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>45443.55751157407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45652</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45665</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>45365.55339120371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45615.75956018519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>45750.59752314815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45750.60038194444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45432.32243055556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45548.82506944444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>45595.50841435185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44776</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>45884.42145833333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>44384</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>45597.59409722222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>45597.63175925926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45798.58113425926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44420.66540509259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45799.65690972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45643.28773148148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>44665</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>45545</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>45545.38399305556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         <v>45428.48818287037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>45252.63642361111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45616.62708333333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45212</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>45805.5902199074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>45264.66268518518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45805.48078703704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>45272</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45811.57541666667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>45799.65251157407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>45632.35192129629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>44883</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>45810.61028935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>45397</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>45889.6340625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44795.59475694445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>45891.49655092593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>45762.70567129629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>45891.46103009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         <v>45425</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>45425</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>45632.46930555555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>45891.61613425926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>45812.55133101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>45891.47790509259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>45890.33939814815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>45890.37798611111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>45895.55916666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>45771.44474537037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>45824.70642361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>45894.40082175926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>45895.56410879629</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>45251.50232638889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45894.61478009259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>45896.50347222222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>45574</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>45817.59530092592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>45896.40668981482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>45898.58877314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44846</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45899.67356481482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>45762</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>45821.44332175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45069.90076388889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45188</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>45188</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45673.53710648148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45905.50929398148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45904.59408564815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45905.38579861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45905</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45905.52456018519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45905.54800925926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45792.39993055556</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45905.46118055555</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45824.6874537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45824.69475694445</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>45257.58369212963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>45008.61673611111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45911.66398148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45496.64633101852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45825.93572916667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45911.35146990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45911.32771990741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>45670</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>45915.60914351852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>45826.47090277778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>45826.60596064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45108.92454861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45108.92465277778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>45825.94304398148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>45331.4727662037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>45257.44179398148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>45257.46166666667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>45919.55409722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>45600.58967592593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>45670</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>45636.36251157407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>45219</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45891.60927083333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>45230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45223.78762731481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>45632.45820601852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44812</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45107.54129629629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>45839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45084</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45485.55846064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>45929.2461574074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>45929.62456018518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>45929.65726851852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>44543.34858796297</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>45835.44179398148</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44826</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45930</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45972.60929398148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45841.40766203704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>44895</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44757.75127314815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45936.41565972222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45936.43376157407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45639.56792824074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45936.41141203704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>45841.42106481481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>45937.40071759259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15189,7 +15189,7 @@
         <v>45937.63039351852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>45433.39725694444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>45342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45526.72263888889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44856.47353009259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45922.40482638889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45841.41876157407</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45939</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45705.58496527778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45436.6455324074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45698.44600694445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45842.6433912037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45943.34504629629</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45817</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45461</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45842.64204861111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45945.6490162037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45945.65640046296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45846.26282407407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>45944.30420138889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>45215</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>45947.55429398148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>45847.47710648148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>45947.5749074074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16557,7 +16557,7 @@
         <v>45632.36650462963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16619,7 +16619,7 @@
         <v>45632.43130787037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>45632.44497685185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>45947.58068287037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>45848.37403935185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45848.393125</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45636.4278125</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>45936.41883101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45534.40605324074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45951.25780092592</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44740.703125</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>45632.57706018518</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45860.44288194444</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45863.35944444445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45863.35443287037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45433.39193287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44662.9243287037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45223.77371527778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45223.79653935185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45747.45960648148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45183.92149305555</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45867.41916666667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>45342</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45954.48731481482</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>45811.58194444444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45957.61104166666</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45265.63185185185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45957.6062962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>45957.56458333333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45279</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45440.70765046297</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>45580</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
         <v>45597.58377314815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>45597.5980324074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>44237.32259259259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45875.36291666667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45040.9262037037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45875.37350694444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45875.37060185185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>45254</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44837.67238425926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45562.59310185185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>45393.69122685185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19115,7 +19115,7 @@
         <v>45960.69895833333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19172,7 +19172,7 @@
         <v>45960</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19229,7 +19229,7 @@
         <v>45876.68149305556</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
         <v>45960.63787037037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19343,7 +19343,7 @@
         <v>45960.43071759259</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>45800.62809027778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>45243</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45961.39596064815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>45960.32569444444</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>45960.64208333333</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19685,7 +19685,7 @@
         <v>45879.42443287037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19742,7 +19742,7 @@
         <v>45964.67049768518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19799,7 +19799,7 @@
         <v>45093.62740740741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         <v>44274.30858796297</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         <v>45677.68695601852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>45879.45802083334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20032,7 +20032,7 @@
         <v>45967.59489583333</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20089,7 +20089,7 @@
         <v>45966.39697916667</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         <v>45966.51038194444</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>45967.68291666666</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45821.54072916666</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>45966.4406712963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>45545</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>45966.37739583333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>45510.39054398148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>45754.56719907407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>45971.43109953704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45398.43495370371</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45883.58484953704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>45971.45069444444</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>45972.4805324074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>45972.54152777778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20959,7 +20959,7 @@
         <v>45883.32168981482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         <v>45757</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45750.60393518519</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45975.58508101852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45426</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45974</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45597.62274305556</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>45978.63996527778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45884.43402777778</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>45961</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45979.41935185185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>45978.64606481481</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>45979.55052083333</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45978.64278935185</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>45978</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>45761.60195601852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45615.75822916667</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>45754.52270833333</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>45748.3718287037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45985.3565162037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>46024.8162962963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45982.51212962963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>45670.6528587963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>45526</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>46027.71767361111</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>46027.72077546296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>45597.34137731481</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>46027.69054398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>46024.82778935185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>46024.84138888889</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>45985.56396990741</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>45982.54618055555</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>46024.4025</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         <v>44938.60140046296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22932,7 +22932,7 @@
         <v>46024.46342592593</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>45985.68675925926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>45985.6922337963</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>46024.45108796296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>46024.45932870371</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45706.60534722222</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>46029.34428240741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
         <v>45735</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>45600.61165509259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>46030.59027777778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45548.8325462963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45062.62559027778</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23616,7 +23616,7 @@
         <v>45170</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23673,7 +23673,7 @@
         <v>45989.52212962963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45554.41347222222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>45394.55886574074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45327</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45707</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>46031.64197916666</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24015,7 +24015,7 @@
         <v>46031.64569444444</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24072,7 +24072,7 @@
         <v>46030.56107638889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24129,7 +24129,7 @@
         <v>46030.60059027778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>46031.64481481481</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>46030.59501157407</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>46031.64355324074</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45992.65472222222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>45992.685625</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>45750.5878125</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>46035.6619212963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>46034.59444444445</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>45992.58619212963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24709,7 +24709,7 @@
         <v>45992.58737268519</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>46035.65548611111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24823,7 +24823,7 @@
         <v>46035.68237268519</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24880,7 +24880,7 @@
         <v>45992.47364583334</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>46034.38321759259</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>46035.66672453703</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>46037.59212962963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>46037.59346064815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>45637</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44287</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>46036.57084490741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45461.59956018518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>46037.59047453704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>45994.67194444445</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>46036.5197800926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>46036.52355324074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>46030</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>46036.5737962963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44897.49520833333</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>45527.5432175926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>45995</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45995.61873842592</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>46024</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45999.6430787037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44651.41497685185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45985.34894675926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>46037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>45999.64283564815</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45028.64403935185</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>46036</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45999.64253472222</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>46041.3713425926</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44508.57627314814</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>46041.66802083333</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44417.84194444444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44649.58061342593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45748.45584490741</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45012</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>46000.27725694444</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45373.53380787037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27004,7 +27004,7 @@
         <v>46043.61354166667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27061,7 +27061,7 @@
         <v>46043.61600694444</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>46043.46753472222</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45607.68255787037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45628</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44609.49275462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>46001.53202546296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45632.31140046296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>46001.47506944444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>45622.70282407408</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>45622.70284722222</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>45750.58597222222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>46043.5499537037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45602.60487268519</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>46044.35980324074</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45561</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>46045.53640046297</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>46044.37353009259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>46045.55574074074</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>46002.61459490741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>46044.44237268518</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>46026</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>46035</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>46022</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>46027.65784722222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>46045.53200231482</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>46044.35633101852</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>46044.50009259259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>46044.3625925926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>46024.51739583333</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>46024</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>46002.60978009259</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>46002.61373842593</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>46043.94076388889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>46044.33540509259</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>46024.43391203704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>46024.4765625</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45747.58306712963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45762.63586805556</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>46048.69645833333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>46029</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45202</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>46030.29105324074</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>46049.5827662037</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45398</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45604.60453703703</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>46007.44385416667</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>46049.57107638889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45775.30450231482</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>45764.47677083333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>46049.57929398148</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>46048.44855324074</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45467.57811342592</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>45027</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>46029</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>46026</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>46050.38663194444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>46050.39603009259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>46008.31300925926</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>46026</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45210</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>46026</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>45210</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>46026</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>45796</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45574.54585648148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>46026</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>46008.32385416667</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>46052.48829861111</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>45056</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>46055.49167824074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>45621</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>45098</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>46055.49300925926</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>46052.49340277778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>46055.65849537037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>46055.59658564815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>44963.64210648148</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>45567.67518518519</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>46052.7244212963</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>45446.42173611111</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>46057.45179398148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>46056.46346064815</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>45750</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31822,7 +31822,7 @@
         <v>46057.56375</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45750.65936342593</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>46034</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>46034</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>46057.64920138889</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>46057.44378472222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>46042</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>44957</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>46034</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45069</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45251.49936342592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>46057.64561342593</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>46057.65163194444</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>46057.64260416666</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>46041</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>46056.65689814815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>46041</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>46058.37325231481</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45246.78600694444</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44546.58009259259</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>46043</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45295.47097222223</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>46058.89159722222</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45757.57515046297</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>46059.35721064815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33267,7 +33267,7 @@
         <v>46042</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>46055</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>45597.33159722222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>45632.42275462963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>46058.37604166667</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45062.64236111111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>46043</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>46055</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>46055</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>46058.56152777778</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44370.49378472222</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45113.90611111111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>44580.92254629629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>45636.34581018519</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>45433.38668981481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>45593.65616898148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>45425.49216435185</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>45588.59930555556</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         <v>44824</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>45470.3715162037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>45565.60444444444</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>45566.87280092593</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>45707</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44897.91680555556</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44869.53126157408</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45246</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34764,7 +34764,7 @@
         <v>45616.5928125</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>45510.41490740741</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45222.33164351852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>45324.62356481481</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45219</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>45597.6052662037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>45260.5078587963</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35168,7 +35168,7 @@
         <v>45470.57621527778</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>45492</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>45754.53108796296</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>45609</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>44564</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>45677.43975694444</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>45243</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>44336.60329861111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>45041.3624537037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>45267.48489583333</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>45597.61638888889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>45597.62934027778</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>45215</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>45580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45560.63702546297</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36033,7 +36033,7 @@
         <v>45560.63703703704</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>45107.55921296297</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36147,7 +36147,7 @@
         <v>44460</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36204,7 +36204,7 @@
         <v>44992</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         <v>44760.47226851852</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36318,7 +36318,7 @@
         <v>45491.34340277778</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36375,7 +36375,7 @@
         <v>45764.46673611111</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>45764.48153935185</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36499,7 +36499,7 @@
         <v>45278.6055324074</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36556,7 +36556,7 @@
         <v>44330.69190972222</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36613,7 +36613,7 @@
         <v>45453</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36670,7 +36670,7 @@
         <v>44739.47634259259</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36727,7 +36727,7 @@
         <v>45205.3875</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>45680.5480787037</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36841,7 +36841,7 @@
         <v>45597.63407407407</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>44582.27614583333</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45747.49863425926</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>45544.36217592593</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37069,7 +37069,7 @@
         <v>45093.62233796297</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37126,7 +37126,7 @@
         <v>45722.4603125</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44956</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>45560.63701388889</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>45639</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44992.60256944445</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>45477.54754629629</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>45492.92803240741</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>45492</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>45275.56056712963</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>45096.47592592592</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>45632.28496527778</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37758,7 +37758,7 @@
         <v>45231</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37820,7 +37820,7 @@
         <v>45108</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>45476</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37934,7 +37934,7 @@
         <v>45597.35850694445</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37991,7 +37991,7 @@
         <v>45432.44259259259</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38048,7 +38048,7 @@
         <v>44823.69696759259</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
         <v>45602.53582175926</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38162,7 +38162,7 @@
         <v>45770.47952546296</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38219,7 +38219,7 @@
         <v>45108.92460648148</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38276,7 +38276,7 @@
         <v>45609.5986574074</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38333,7 +38333,7 @@
         <v>45595.50844907408</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38390,7 +38390,7 @@
         <v>45771.43126157407</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38447,7 +38447,7 @@
         <v>45051.44525462963</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>45771.62862268519</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>45590.48979166667</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>45705.5609375</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38680,7 +38680,7 @@
         <v>44348.48729166666</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38737,7 +38737,7 @@
         <v>45327</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>45435.6531712963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38851,7 +38851,7 @@
         <v>45708.54879629629</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38908,7 +38908,7 @@
         <v>45534.43899305556</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>45594.42071759259</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>45636.32105324074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>45134</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45764.46388888889</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39203,7 +39203,7 @@
         <v>45113.44694444445</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39260,7 +39260,7 @@
         <v>45638.68046296296</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39317,7 +39317,7 @@
         <v>45035</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>45600.6139699074</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>45593.60655092593</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>45749.39025462963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>45777.4344212963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>45779.57425925926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45782.35456018519</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45782.60820601852</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45782.65975694444</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>45544.46974537037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45588.40865740741</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>45149.45503472222</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45420.65974537037</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>45791.55123842593</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>45791.5553125</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45791.60163194445</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40254,7 +40254,7 @@
         <v>45791.64822916667</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40316,7 +40316,7 @@
         <v>45791.44717592592</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40373,7 +40373,7 @@
         <v>45793.58898148148</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40435,7 +40435,7 @@
         <v>45792.6493287037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40497,7 +40497,7 @@
         <v>45797.49787037037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40559,7 +40559,7 @@
         <v>44698</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40616,7 +40616,7 @@
         <v>45797.49285879629</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40678,7 +40678,7 @@
         <v>45527.54472222222</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40735,7 +40735,7 @@
         <v>45442.64026620371</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40792,7 +40792,7 @@
         <v>45797</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40854,7 +40854,7 @@
         <v>45797.67623842593</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40916,7 +40916,7 @@
         <v>45467.55809027778</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45947.57145833333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45393</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45982.57236111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45041.52760416667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45748.58319444444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>44706.44454861111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45798.57554398148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44523.6453125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45614.65710648148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>46030.29943287037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45798.57803240741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45425.6449537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45632.33841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45569</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45629.87905092593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44826</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45972.61453703704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>45509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>45992.6877662037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>45994.72599537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45632.56211805555</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>45994.71618055556</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>45632.31140046296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45205</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>46045.37459490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>46052.4909375</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>46043</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>46026</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>46044</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>46052</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>46029</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44729</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>45632.28496527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44510.54027777778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44783.76981481481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44292.69246527777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44508.56807870371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44292</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>44686</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44267</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44326.55663194445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44524.6865625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44637</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44265.5718287037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44837</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44824</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>44616</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44740</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44823.53434027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44740</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44292</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44503.61028935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44446.55512731482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44847</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44823</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44841</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44293.66891203704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44867.57646990741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44265.56106481481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44340.32287037037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44783.73983796296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44826</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44820.55082175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44490.61769675926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44302</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>44551.56446759259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44837.31979166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>44698</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44663.49115740741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44663.55478009259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44823</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44838</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44748</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44698.68241898148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44417</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44491.69429398148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>45558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44881</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44907.44679398148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45617.6917824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45107.55283564814</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45267.92671296297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>45428.37322916667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>45764.45541666666</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45764.46203703704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45748.36497685185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44750</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>45597.60057870371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45749.38613425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>45251</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>45510.42049768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>45636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>45699.55270833334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>45471.44736111111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>45278.41434027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44937</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44992.61489583334</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44846</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>45636.43966435185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45443.55751157407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45665</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45365.55339120371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45615.75956018519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45432.32243055556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45750.59752314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45750.60038194444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>45548.82506944444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>45595.50841435185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44384</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>45597.59409722222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>45597.63175925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>45652</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44420.66540509259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>45545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>45545.38399305556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44665</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>45252.63642361111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>45212</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>45264.66268518518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>45632.35192129629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>45425</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>45425</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>45632.46930555555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>45817.59530092592</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45771.44474537037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45884.42145833333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>44795.59475694445</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45251.50232638889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45574</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44846</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45821.44332175926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45824.6874537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>45824.69475694445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45069.90076388889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45188</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45188</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>45889.6340625</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>45673.53710648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>45891.49655092593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45825.93572916667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>45891.46103009259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>45891.61613425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>45891.47790509259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>45890.33939814815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>45826.47090277778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>45890.37798611111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>45895.55916666667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>45826.60596064815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>45825.94304398148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>45824.70642361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45894.40082175926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45895.56410879629</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45257.58369212963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45600.58967592593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45894.61478009259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45008.61673611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45896.50347222222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45496.64633101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45670</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>45896.40668981482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45898.58877314815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>45108.92454861111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>45108.92465277778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>45899.67356481482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>45331.4727662037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>45762</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>45257.44179398148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45257.46166666667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45835.44179398148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45670</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45905.50929398148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45904.59408564815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45905.38579861111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45905</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45905.52456018519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>45636.36251157407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>45905.54800925926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45219</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>45792.39993055556</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45905.46118055555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45230</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45841.40766203704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>45223.78762731481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>45841.42106481481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>45632.45820601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>45107.54129629629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>45666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45841.41876157407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45911.66398148148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45436.6455324074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45084</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45842.6433912037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45485.55846064815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45911.35146990741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45911.32771990741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45915.60914351852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45842.64204861111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45846.26282407407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>45847.47710648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44543.34858796297</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45848.37403935185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44826</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45848.393125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45919.55409722222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45860.44288194444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45891.60927083333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>44757.75127314815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45863.35944444445</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45639.56792824074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>45863.35443287037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45433.39725694444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45342</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45867.41916666667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45839</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45526.72263888889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44856.47353009259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45705.58496527778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45811.58194444444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45929.2461574074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45698.44600694445</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45929.62456018518</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45929.65726851852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45930</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45972.60929398148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45875.36291666667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45875.37350694444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45461</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45875.37060185185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>45215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45876.68149305556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>45632.36650462963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45632.43130787037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>45632.44497685185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45800.62809027778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45636.4278125</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45879.42443287037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45534.40605324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44740.703125</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45879.45802083334</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45632.57706018518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>45936.41565972222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>45936.43376157407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>45821.54072916666</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45936.41141203704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45937.40071759259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45937.63039351852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45883.58484953704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45883.32168981482</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45433.39193287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>45922.40482638889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>45939</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44662.9243287037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>45223.77371527778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>45223.79653935185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>45747.45960648148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45183.92149305555</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45342</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45265.63185185185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>45943.34504629629</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>45945.6490162037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45279</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>45945.65640046296</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45440.70765046297</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>45580</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45944.30420138889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>45884.43402777778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>45597.58377314815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>45597.5980324074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>45947.55429398148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45040.9262037037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>45947.5749074074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>45947.58068287037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>45254</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>45936.41883101852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>45951.25780092592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44837.67238425926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>45562.59310185185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>45393.69122685185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>45243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45093.62740740741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44274.30858796297</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45677.68695601852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>45954.48731481482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>45957.61104166666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>45957.6062962963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>45957.56458333333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>45545</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>45510.39054398148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>45754.56719907407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>45398.43495370371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>45757</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>45960.69895833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>45960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45750.60393518519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>45960.63787037037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45960.43071759259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>45961.39596064815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45960.32569444444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45960.64208333333</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45426</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45964.67049768518</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45597.62274305556</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45967.59489583333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45966.39697916667</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45966.51038194444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45967.68291666666</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45966.4406712963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45966.37739583333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45761.60195601852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45971.43109953704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45615.75822916667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45754.52270833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45748.3718287037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45670.6528587963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45971.45069444444</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45526</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45597.34137731481</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45972.4805324074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>45972.54152777778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44938.60140046296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45975.58508101852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45706.60534722222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>45974</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45978.63996527778</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>45735</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>45961</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>45979.41935185185</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45600.61165509259</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>45978.64606481481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>45979.55052083333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45978.64278935185</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45978</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45548.8325462963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45062.62559027778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45170</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45554.41347222222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>45394.55886574074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>45327</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45985.3565162037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>46024.8162962963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45982.51212962963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>46027.72077546296</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22197,7 +22197,7 @@
         <v>46024.82778935185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22254,7 +22254,7 @@
         <v>46024.84138888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22311,7 +22311,7 @@
         <v>45985.56396990741</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>45982.54618055555</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22425,7 +22425,7 @@
         <v>45750.5878125</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>45985.68675925926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>45985.6922337963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>45989.52212962963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44287</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>45992.65472222222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>45461.59956018518</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>45992.685625</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>46035.6619212963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>46034.59444444445</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>45992.58619212963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>45992.58737268519</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>46035.65548611111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>46035.68237268519</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44897.49520833333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45992.47364583334</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45527.5432175926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>46034.38321759259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>46035.66672453703</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44651.41497685185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>46037.59212962963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>46037.59346064815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>46036.57084490741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>46037.59047453704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45994.67194444445</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>46036.5197800926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>46036.52355324074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45028.64403935185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>46036.5737962963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44508.57627314814</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>45995</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>45995.61873842592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44417.84194444444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>45999.6430787037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44649.58061342593</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45748.45584490741</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>45985.34894675926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>45012</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>45373.53380787037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>46037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45999.64283564815</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>46036</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45607.68255787037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45628</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>45999.64253472222</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44609.49275462963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>46041.3713425926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>46041.66802083333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>45622.70282407408</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>45622.70284722222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>46000.27725694444</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>46043.61354166667</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>46043.61600694444</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>46043.46753472222</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>45750.58597222222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>45602.60487268519</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>45561</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>46001.53202546296</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>46001.47506944444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>46043.5499537037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>45747.58306712963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>46045.53640046297</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>46044.37353009259</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>46045.55574074074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>46002.61459490741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>46044.44237268518</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>46035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>45762.63586805556</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>46045.53200231482</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>45202</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>46044.50009259259</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>45398</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>46024.51739583333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45604.60453703703</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>46002.60978009259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>46002.61373842593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>46043.94076388889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>46024.43391203704</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>45775.30450231482</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>45764.47677083333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45467.57811342592</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45027</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>46048.69645833333</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>46030.29105324074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>46049.5827662037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45210</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>46007.44385416667</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>46049.57107638889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>46049.57929398148</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45574.54585648148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>46050.38663194444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>46050.39603009259</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>46008.31300925926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>45621</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45098</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45796</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>44963.64210648148</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45567.67518518519</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>46008.32385416667</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>46052.48829861111</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45446.42173611111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45750</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45750.65936342593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28517,7 +28517,7 @@
         <v>44957</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28574,7 +28574,7 @@
         <v>46052.49340277778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28631,7 +28631,7 @@
         <v>46055.65849537037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28688,7 +28688,7 @@
         <v>46055.59658564815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28745,7 +28745,7 @@
         <v>45069</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28802,7 +28802,7 @@
         <v>45251.49936342592</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>46052.7244212963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>46057.45179398148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28973,7 +28973,7 @@
         <v>46057.56375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>46042</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>45246.78600694444</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44546.58009259259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>45295.47097222223</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>45757.57515046297</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>46041</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>45597.33159722222</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45632.42275462963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29496,7 +29496,7 @@
         <v>45062.64236111111</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29553,7 +29553,7 @@
         <v>46058.37325231481</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>46043</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44370.49378472222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>46059.35721064815</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>46042</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45113.90611111111</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>46055</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>46058.37604166667</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>46043</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>46055</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>46055</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44580.92254629629</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>46058.56152777778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>45636.34581018519</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>45433.38668981481</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>45593.65616898148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>46041</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>46063.31143518518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>46063.28967592592</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>46063.31457175926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>46062.68954861111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>46062.36005787037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>46063.29253472222</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>46061.84179398148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>46062.30583333333</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>45425.49216435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>46062.53140046296</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>46062.53787037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>45588.59930555556</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>46062.64984953704</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44824</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>46063.32108796296</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>46062.30194444444</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>45470.3715162037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>45565.60444444444</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>46057</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>45566.87280092593</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>46022</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>45707</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44897.91680555556</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>46065.38116898148</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44869.53126157408</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>46056</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>45246</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>46026</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>46026</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>46057</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>46024.4025</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>46024.46342592593</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>46066.37966435185</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>46024.45932870371</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>46069.53130787037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>46069.37511574074</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>46066.3674537037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>46044</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>46044</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>46066.38159722222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>46034</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>45616.5928125</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>46066.34541666666</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>46066.48649305556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>46026</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>46044</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>46026</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         <v>46024.45108796296</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>46024</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>46024</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>45510.41490740741</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33469,7 +33469,7 @@
         <v>46066.47655092592</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33526,7 +33526,7 @@
         <v>46044</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>46027.65784722222</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33640,7 +33640,7 @@
         <v>46027.69054398148</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>46024.4765625</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>46069.37597222222</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33811,7 +33811,7 @@
         <v>45222.33164351852</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>46057</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33925,7 +33925,7 @@
         <v>46027.71767361111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33982,7 +33982,7 @@
         <v>46057</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34039,7 +34039,7 @@
         <v>46034</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34096,7 +34096,7 @@
         <v>46055</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34153,7 +34153,7 @@
         <v>46055</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34210,7 +34210,7 @@
         <v>46034</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34267,7 +34267,7 @@
         <v>46026</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34324,7 +34324,7 @@
         <v>46026</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34381,7 +34381,7 @@
         <v>46058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34438,7 +34438,7 @@
         <v>46071.58712962963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34495,7 +34495,7 @@
         <v>45324.62356481481</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>46071.35637731481</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>46029</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34666,7 +34666,7 @@
         <v>46029.34428240741</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         <v>46070.58806712963</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34780,7 +34780,7 @@
         <v>45219</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34837,7 +34837,7 @@
         <v>46029</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34894,7 +34894,7 @@
         <v>46070.38061342593</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34951,7 +34951,7 @@
         <v>46070.58158564815</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>46070.36697916667</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>46048</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>46070.44583333333</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>46071</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>46056</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>46048</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>46030</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>46031.64355324074</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>46030.59501157407</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>46030.56107638889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>46030.60059027778</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>45597.6052662037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>46073.28457175926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>46057</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>46073.67400462963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>45260.5078587963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>46031.64481481481</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>46073.46130787037</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>46073.44458333333</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>45470.57621527778</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>46031.64197916666</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>46031.64569444444</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>45492</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>46030.59027777778</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>45707</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>45754.53108796296</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>45609</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44564</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36639,7 +36639,7 @@
         <v>45677.43975694444</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36696,7 +36696,7 @@
         <v>45243</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36753,7 +36753,7 @@
         <v>44336.60329861111</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36810,7 +36810,7 @@
         <v>45041.3624537037</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>45267.48489583333</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>45597.61638888889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>45597.62934027778</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>45215</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>45580</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45560.63702546297</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45560.63703703704</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>45107.55921296297</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44460</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44992</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44760.47226851852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>45491.34340277778</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>45764.46673611111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>45764.48153935185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37680,7 +37680,7 @@
         <v>45278.6055324074</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37737,7 +37737,7 @@
         <v>44330.69190972222</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37794,7 +37794,7 @@
         <v>45453</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37851,7 +37851,7 @@
         <v>44739.47634259259</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37908,7 +37908,7 @@
         <v>45205.3875</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37965,7 +37965,7 @@
         <v>45680.5480787037</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38022,7 +38022,7 @@
         <v>45597.63407407407</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38079,7 +38079,7 @@
         <v>44582.27614583333</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>45747.49863425926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>45544.36217592593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>45093.62233796297</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38307,7 +38307,7 @@
         <v>45722.4603125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44956</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>45560.63701388889</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>45639</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44992.60256944445</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>45477.54754629629</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38649,7 +38649,7 @@
         <v>45492.92803240741</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>45492</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>45275.56056712963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>45096.47592592592</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>45231</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>45108</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>45476</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>45597.35850694445</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>45432.44259259259</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44823.69696759259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>45602.53582175926</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>45770.47952546296</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>45108.92460648148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>45609.5986574074</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39452,7 +39452,7 @@
         <v>45595.50844907408</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39509,7 +39509,7 @@
         <v>45771.43126157407</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39566,7 +39566,7 @@
         <v>45051.44525462963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39628,7 +39628,7 @@
         <v>45771.62862268519</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39685,7 +39685,7 @@
         <v>45590.48979166667</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39742,7 +39742,7 @@
         <v>45705.5609375</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39799,7 +39799,7 @@
         <v>44348.48729166666</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39856,7 +39856,7 @@
         <v>45327</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39913,7 +39913,7 @@
         <v>45435.6531712963</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39970,7 +39970,7 @@
         <v>45708.54879629629</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40027,7 +40027,7 @@
         <v>45534.43899305556</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40089,7 +40089,7 @@
         <v>45594.42071759259</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         <v>45636.32105324074</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40203,7 +40203,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40260,7 +40260,7 @@
         <v>45764.46388888889</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40322,7 +40322,7 @@
         <v>45113.44694444445</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40379,7 +40379,7 @@
         <v>45638.68046296296</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40436,7 +40436,7 @@
         <v>45035</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40493,7 +40493,7 @@
         <v>45600.6139699074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40550,7 +40550,7 @@
         <v>45593.60655092593</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40607,7 +40607,7 @@
         <v>45749.39025462963</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40664,7 +40664,7 @@
         <v>45777.4344212963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40721,7 +40721,7 @@
         <v>45779.57425925926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40778,7 +40778,7 @@
         <v>45782.35456018519</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40840,7 +40840,7 @@
         <v>45782.60820601852</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40897,7 +40897,7 @@
         <v>45782.65975694444</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40954,7 +40954,7 @@
         <v>45544.46974537037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41011,7 +41011,7 @@
         <v>45588.40865740741</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41068,7 +41068,7 @@
         <v>45149.45503472222</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41125,7 +41125,7 @@
         <v>45420.65974537037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41187,7 +41187,7 @@
         <v>45791.55123842593</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>45791.5553125</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41311,7 +41311,7 @@
         <v>45791.60163194445</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41373,7 +41373,7 @@
         <v>45791.64822916667</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>45791.44717592592</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>45793.58898148148</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41554,7 +41554,7 @@
         <v>45792.6493287037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>45797.49787037037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41678,7 +41678,7 @@
         <v>44698</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45797.49285879629</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45527.54472222222</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45442.64026620371</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45797</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45797.67623842593</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45467.55809027778</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>44776</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>45798.58113425926</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>45757</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45799.65690972222</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42335,7 +42335,7 @@
         <v>45643.28773148148</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42392,7 +42392,7 @@
         <v>45428.48818287037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42454,7 +42454,7 @@
         <v>45616.62708333333</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42511,7 +42511,7 @@
         <v>45805.5902199074</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42568,7 +42568,7 @@
         <v>45805.48078703704</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>45272</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42682,7 +42682,7 @@
         <v>45811.57541666667</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42739,7 +42739,7 @@
         <v>45799.65251157407</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42801,7 +42801,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42858,7 +42858,7 @@
         <v>45810.61028935185</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42915,7 +42915,7 @@
         <v>45397</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42972,7 +42972,7 @@
         <v>45762.70567129629</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         <v>45812.55133101852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>

--- a/Översikt SÖDERHAMN.xlsx
+++ b/Översikt SÖDERHAMN.xlsx
@@ -575,7 +575,7 @@
         <v>45947.57145833333</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45393</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45982.57236111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45041.52760416667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>46026</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45748.58319444444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>44706.44454861111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>45509</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>45798.57554398148</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44523.6453125</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>45614.65710648148</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>46030.29943287037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45798.57803240741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45425.6449537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>45632.33841435185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45569</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45629.87905092593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44826</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>45972.61453703704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>45509</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>45992.6877662037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>45994.72599537037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>45632.56211805555</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>45994.71618055556</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>45632.31140046296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>45205</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>46045.37459490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>46052.4909375</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
         <v>46043</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>46026</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>46044</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>46052</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>46029</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44729</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>45632.28496527778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44510.54027777778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44783.76981481481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>44292.69246527777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>44508.56807870371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>44292</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>44686</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>44419</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44267</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44326.55663194445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44524.6865625</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44637</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44265.5718287037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44837</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44824</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>44616</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>44740</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44823.53434027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44740</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44292</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44503.61028935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44446.55512731482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44847</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44823</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44841</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44293.66891203704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44867.57646990741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44265.56106481481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44340.32287037037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44783.73983796296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44826</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44820.55082175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44490.61769675926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44302</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>44551.56446759259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44837.31979166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         <v>44698</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44663.49115740741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44663.55478009259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44823</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44838</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44748</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44698.68241898148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44417</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44384</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44392</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44491.69429398148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>45558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44881</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44907.44679398148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45617.6917824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45107.55283564814</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45267.92671296297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>45428.37322916667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>45764.45541666666</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45764.46203703704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>45748.36497685185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44750</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>45597.60057870371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45749.38613425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>45251</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>45510.42049768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>45636</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>45699.55270833334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>45471.44736111111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>45278.41434027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44937</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44992.61489583334</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44846</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>45636.43966435185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45443.55751157407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45665</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45365.55339120371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45615.75956018519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>45432.32243055556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45750.59752314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45750.60038194444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>45548.82506944444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>45595.50841435185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>44384</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         <v>45597.59409722222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>45597.63175925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>45652</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44420.66540509259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>45545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>45545.38399305556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44665</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>45252.63642361111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>45212</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>45264.66268518518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>45632.35192129629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>45425</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>45425</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>45632.46930555555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>45817.59530092592</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45771.44474537037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45884.42145833333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>44795.59475694445</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45251.50232638889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45574</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44846</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45821.44332175926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45824.6874537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>45824.69475694445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45069.90076388889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45188</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>45188</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>45889.6340625</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>45673.53710648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>45891.49655092593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45825.93572916667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>45891.46103009259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>45891.61613425926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>45891.47790509259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>45890.33939814815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>45826.47090277778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>45890.37798611111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>45895.55916666667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>45826.60596064815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>45825.94304398148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>45824.70642361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>45894.40082175926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>45895.56410879629</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>45257.58369212963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45600.58967592593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>45894.61478009259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45008.61673611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45896.50347222222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45496.64633101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45670</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>45896.40668981482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45898.58877314815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>45108.92454861111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>45108.92465277778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>45899.67356481482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>45331.4727662037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>45762</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>45257.44179398148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45257.46166666667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45835.44179398148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45670</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45905.50929398148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45904.59408564815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45905.38579861111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45905</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45905.52456018519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>45636.36251157407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>45905.54800925926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45219</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>45792.39993055556</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45905.46118055555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45230</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45841.40766203704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>45223.78762731481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>45841.42106481481</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>45632.45820601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44812</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>45107.54129629629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>45666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45841.41876157407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45911.66398148148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45436.6455324074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45084</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45842.6433912037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>45485.55846064815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45911.35146990741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45911.32771990741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>45817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45915.60914351852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45842.64204861111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45846.26282407407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>45847.47710648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44543.34858796297</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45848.37403935185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44826</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45848.393125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45919.55409722222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45860.44288194444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>44895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45891.60927083333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>44757.75127314815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45863.35944444445</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45639.56792824074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>45863.35443287037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45433.39725694444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45342</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45867.41916666667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45839</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45526.72263888889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>44856.47353009259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45705.58496527778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45811.58194444444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45929.2461574074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45698.44600694445</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45929.62456018518</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45929.65726851852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45930</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45972.60929398148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45875.36291666667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45875.37350694444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45461</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45875.37060185185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>45215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45876.68149305556</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>45632.36650462963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45632.43130787037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>45632.44497685185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45800.62809027778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>45636.4278125</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>45879.42443287037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45534.40605324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44740.703125</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>45879.45802083334</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>45632.57706018518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>45936.41565972222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>45936.43376157407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>45821.54072916666</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45936.41141203704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45937.40071759259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45937.63039351852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45883.58484953704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45883.32168981482</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45433.39193287037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>45922.40482638889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>45939</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44662.9243287037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>45223.77371527778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>45223.79653935185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>45747.45960648148</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45183.92149305555</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45342</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45265.63185185185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>45943.34504629629</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>45945.6490162037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45279</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>45945.65640046296</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45440.70765046297</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>45580</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45944.30420138889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>45884.43402777778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         <v>45597.58377314815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         <v>45597.5980324074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17944,7 +17944,7 @@
         <v>45947.55429398148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>45040.9262037037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18058,7 +18058,7 @@
         <v>45947.5749074074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>45947.58068287037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>45254</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>45936.41883101852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>45951.25780092592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44837.67238425926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>45562.59310185185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>45393.69122685185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>45243</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45093.62740740741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44274.30858796297</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45677.68695601852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>45954.48731481482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>45957.61104166666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>45957.6062962963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>45957.56458333333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>45545</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19032,7 +19032,7 @@
         <v>45510.39054398148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>45754.56719907407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>45398.43495370371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>45757</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>45960.69895833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>45960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45750.60393518519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>45960.63787037037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45960.43071759259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>45961.39596064815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>45960.32569444444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45960.64208333333</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>45426</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>45964.67049768518</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45597.62274305556</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45967.59489583333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45966.39697916667</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45966.51038194444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45967.68291666666</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45966.4406712963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45966.37739583333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45761.60195601852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>45971.43109953704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>45615.75822916667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45754.52270833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45748.3718287037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45670.6528587963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45971.45069444444</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45526</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45597.34137731481</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45972.4805324074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>45972.54152777778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44938.60140046296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45975.58508101852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45706.60534722222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>45974</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45978.63996527778</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>45735</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>45961</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>45979.41935185185</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45600.61165509259</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>45978.64606481481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>45979.55052083333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45978.64278935185</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45978</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45548.8325462963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45062.62559027778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45170</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45554.41347222222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>45394.55886574074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>45327</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45985.3565162037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>46024.8162962963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45982.51212962963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
         <v>46027.72077546296</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22197,7 +22197,7 @@
         <v>46024.82778935185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22254,7 +22254,7 @@
         <v>46024.84138888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22311,7 +22311,7 @@
         <v>45985.56396990741</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>45982.54618055555</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22425,7 +22425,7 @@
         <v>45750.5878125</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>45985.68675925926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>45985.6922337963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>45989.52212962963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45637</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44287</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>45992.65472222222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>45461.59956018518</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>45992.685625</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>46035.6619212963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>46034.59444444445</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>45992.58619212963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>45992.58737268519</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         <v>46035.65548611111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>46035.68237268519</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44897.49520833333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45992.47364583334</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45527.5432175926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>46034.38321759259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>46035.66672453703</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44651.41497685185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>46037.59212962963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>46037.59346064815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>46036.57084490741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>46037.59047453704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45994.67194444445</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>46036.5197800926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23979,7 +23979,7 @@
         <v>46036.52355324074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24036,7 +24036,7 @@
         <v>45028.64403935185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>46036.5737962963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24155,7 +24155,7 @@
         <v>44508.57627314814</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>45995</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>45995.61873842592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44417.84194444444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>45999.6430787037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44649.58061342593</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>45748.45584490741</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>45985.34894675926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>45012</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>45373.53380787037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>46037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>45999.64283564815</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>46036</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>45607.68255787037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>45628</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>45999.64253472222</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44609.49275462963</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>46041.3713425926</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>46041.66802083333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>45622.70282407408</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>45622.70284722222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>46000.27725694444</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>46043.61354166667</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>46043.61600694444</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>46043.46753472222</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>45750.58597222222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>45602.60487268519</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>45561</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>46001.53202546296</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>46001.47506944444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>46043.5499537037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>45747.58306712963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>46045.53640046297</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>46044.37353009259</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>46045.55574074074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>46002.61459490741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>46044.44237268518</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>46035</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>45762.63586805556</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>46045.53200231482</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>45202</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>46044.50009259259</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>45398</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>46024.51739583333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45604.60453703703</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>46002.60978009259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>46002.61373842593</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>46043.94076388889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>46024.43391203704</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>45775.30450231482</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>45764.47677083333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>45467.57811342592</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27139,7 +27139,7 @@
         <v>45027</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>46048.69645833333</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>46030.29105324074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>46049.5827662037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>45210</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45210</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>46007.44385416667</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>46049.57107638889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>46049.57929398148</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45574.54585648148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>46050.38663194444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>46050.39603009259</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>46008.31300925926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>45056</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27942,7 +27942,7 @@
         <v>45621</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45098</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45796</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>44963.64210648148</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45567.67518518519</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>46008.32385416667</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>46052.48829861111</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45446.42173611111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45750</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>45750.65936342593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28517,7 +28517,7 @@
         <v>44957</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28574,7 +28574,7 @@
         <v>46052.49340277778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28631,7 +28631,7 @@
         <v>46055.65849537037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28688,7 +28688,7 @@
         <v>46055.59658564815</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28745,7 +28745,7 @@
         <v>45069</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28802,7 +28802,7 @@
         <v>45251.49936342592</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>46052.7244212963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28916,7 +28916,7 @@
         <v>46057.45179398148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28973,7 +28973,7 @@
         <v>46057.56375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29030,7 +29030,7 @@
         <v>46042</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29087,7 +29087,7 @@
         <v>45246.78600694444</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>44546.58009259259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         <v>45295.47097222223</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29258,7 +29258,7 @@
         <v>45757.57515046297</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>46041</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>45597.33159722222</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45632.42275462963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29496,7 +29496,7 @@
         <v>45062.64236111111</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29553,7 +29553,7 @@
         <v>46058.37325231481</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>46043</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44370.49378472222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>46059.35721064815</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>46042</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>45113.90611111111</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>46055</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>46058.37604166667</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>46043</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>46055</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>46055</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44580.92254629629</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>46058.56152777778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>45636.34581018519</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>45433.38668981481</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>45593.65616898148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>46041</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>46063.31143518518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>46063.28967592592</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>46063.31457175926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>46062.68954861111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>46062.36005787037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>46063.29253472222</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>46061.84179398148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>46062.30583333333</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>45425.49216435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>46062.53140046296</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31112,7 +31112,7 @@
         <v>46062.53787037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>45588.59930555556</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31226,7 +31226,7 @@
         <v>46062.64984953704</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44824</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31340,7 +31340,7 @@
         <v>46063.32108796296</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>46062.30194444444</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>45470.3715162037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>45565.60444444444</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31568,7 +31568,7 @@
         <v>46057</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31630,7 +31630,7 @@
         <v>45566.87280092593</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31687,7 +31687,7 @@
         <v>46022</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31744,7 +31744,7 @@
         <v>45707</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31801,7 +31801,7 @@
         <v>44897.91680555556</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>46065.38116898148</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         <v>44869.53126157408</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31972,7 +31972,7 @@
         <v>46056</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>45246</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>46026</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>46026</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>46057</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>46024.4025</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>46024.46342592593</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>46066.37966435185</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>46024.45932870371</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>46069.53130787037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>46069.37511574074</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>46066.3674537037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32666,7 +32666,7 @@
         <v>46044</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32723,7 +32723,7 @@
         <v>46044</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>46066.38159722222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32837,7 +32837,7 @@
         <v>46034</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32894,7 +32894,7 @@
         <v>45616.5928125</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32951,7 +32951,7 @@
         <v>46066.34541666666</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33008,7 +33008,7 @@
         <v>46066.48649305556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33065,7 +33065,7 @@
         <v>46026</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33122,7 +33122,7 @@
         <v>46044</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>46026</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         <v>46024.45108796296</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>46024</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>46024</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>45510.41490740741</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33469,7 +33469,7 @@
         <v>46066.47655092592</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33526,7 +33526,7 @@
         <v>46044</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33583,7 +33583,7 @@
         <v>46027.65784722222</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33640,7 +33640,7 @@
         <v>46027.69054398148</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33697,7 +33697,7 @@
         <v>46024.4765625</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33754,7 +33754,7 @@
         <v>46069.37597222222</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33811,7 +33811,7 @@
         <v>45222.33164351852</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>46057</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33925,7 +33925,7 @@
         <v>46027.71767361111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33982,7 +33982,7 @@
         <v>46057</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34039,7 +34039,7 @@
         <v>46034</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34096,7 +34096,7 @@
         <v>46055</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34153,7 +34153,7 @@
         <v>46055</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34210,7 +34210,7 @@
         <v>46034</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34267,7 +34267,7 @@
         <v>46026</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34324,7 +34324,7 @@
         <v>46026</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34381,7 +34381,7 @@
         <v>46058</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34438,7 +34438,7 @@
         <v>46071.58712962963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34495,7 +34495,7 @@
         <v>45324.62356481481</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>46071.35637731481</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>46029</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34666,7 +34666,7 @@
         <v>46029.34428240741</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         <v>46070.58806712963</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34780,7 +34780,7 @@
         <v>45219</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34837,7 +34837,7 @@
         <v>46029</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34894,7 +34894,7 @@
         <v>46070.38061342593</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34951,7 +34951,7 @@
         <v>46070.58158564815</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>46070.36697916667</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>46048</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>46070.44583333333</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>46071</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>46056</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>46048</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>46030</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>46031.64355324074</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>46030.59501157407</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>46030.56107638889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>46030.60059027778</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>45597.6052662037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>46073.28457175926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>46057</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>46073.67400462963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>45260.5078587963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>46031.64481481481</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>46073.46130787037</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>46073.44458333333</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>45470.57621527778</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36183,7 +36183,7 @@
         <v>46031.64197916666</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>46031.64569444444</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36297,7 +36297,7 @@
         <v>45492</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36354,7 +36354,7 @@
         <v>46030.59027777778</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>45707</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>45754.53108796296</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36525,7 +36525,7 @@
         <v>45609</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>44564</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36639,7 +36639,7 @@
         <v>45677.43975694444</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36696,7 +36696,7 @@
         <v>45243</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36753,7 +36753,7 @@
         <v>44336.60329861111</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36810,7 +36810,7 @@
         <v>45041.3624537037</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36872,7 +36872,7 @@
         <v>45267.48489583333</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36929,7 +36929,7 @@
         <v>45597.61638888889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36986,7 +36986,7 @@
         <v>45597.62934027778</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         <v>45215</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37100,7 +37100,7 @@
         <v>45580</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
         <v>45560.63702546297</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45560.63703703704</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>45107.55921296297</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37328,7 +37328,7 @@
         <v>44460</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>44992</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>44760.47226851852</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37499,7 +37499,7 @@
         <v>45491.34340277778</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37556,7 +37556,7 @@
         <v>45764.46673611111</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>45764.48153935185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37680,7 +37680,7 @@
         <v>45278.6055324074</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37737,7 +37737,7 @@
         <v>44330.69190972222</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37794,7 +37794,7 @@
         <v>45453</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37851,7 +37851,7 @@
         <v>44739.47634259259</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37908,7 +37908,7 @@
         <v>45205.3875</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37965,7 +37965,7 @@
         <v>45680.5480787037</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38022,7 +38022,7 @@
         <v>45597.63407407407</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38079,7 +38079,7 @@
         <v>44582.27614583333</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38136,7 +38136,7 @@
         <v>45747.49863425926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38193,7 +38193,7 @@
         <v>45544.36217592593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38250,7 +38250,7 @@
         <v>45093.62233796297</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38307,7 +38307,7 @@
         <v>45722.4603125</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>44956</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>45560.63701388889</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>45639</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>44992.60256944445</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>45477.54754629629</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38649,7 +38649,7 @@
         <v>45492.92803240741</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>45492</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>45275.56056712963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>45096.47592592592</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>45231</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>45108</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>45476</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>45597.35850694445</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39110,7 +39110,7 @@
         <v>45432.44259259259</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39167,7 +39167,7 @@
         <v>44823.69696759259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39224,7 +39224,7 @@
         <v>45602.53582175926</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39281,7 +39281,7 @@
         <v>45770.47952546296</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39338,7 +39338,7 @@
         <v>45108.92460648148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39395,7 +39395,7 @@
         <v>45609.5986574074</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39452,7 +39452,7 @@
         <v>45595.50844907408</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39509,7 +39509,7 @@
         <v>45771.43126157407</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39566,7 +39566,7 @@
         <v>45051.44525462963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39628,7 +39628,7 @@
         <v>45771.62862268519</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39685,7 +39685,7 @@
         <v>45590.48979166667</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39742,7 +39742,7 @@
         <v>45705.5609375</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39799,7 +39799,7 @@
         <v>44348.48729166666</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39856,7 +39856,7 @@
         <v>45327</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39913,7 +39913,7 @@
         <v>45435.6531712963</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39970,7 +39970,7 @@
         <v>45708.54879629629</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40027,7 +40027,7 @@
         <v>45534.43899305556</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40089,7 +40089,7 @@
         <v>45594.42071759259</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         <v>45636.32105324074</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40203,7 +40203,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40260,7 +40260,7 @@
         <v>45764.46388888889</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40322,7 +40322,7 @@
         <v>45113.44694444445</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40379,7 +40379,7 @@
         <v>45638.68046296296</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40436,7 +40436,7 @@
         <v>45035</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40493,7 +40493,7 @@
         <v>45600.6139699074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40550,7 +40550,7 @@
         <v>45593.60655092593</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40607,7 +40607,7 @@
         <v>45749.39025462963</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40664,7 +40664,7 @@
         <v>45777.4344212963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40721,7 +40721,7 @@
         <v>45779.57425925926</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40778,7 +40778,7 @@
         <v>45782.35456018519</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40840,7 +40840,7 @@
         <v>45782.60820601852</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40897,7 +40897,7 @@
         <v>45782.65975694444</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40954,7 +40954,7 @@
         <v>45544.46974537037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41011,7 +41011,7 @@
         <v>45588.40865740741</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41068,7 +41068,7 @@
         <v>45149.45503472222</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41125,7 +41125,7 @@
         <v>45420.65974537037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41187,7 +41187,7 @@
         <v>45791.55123842593</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>45791.5553125</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41311,7 +41311,7 @@
         <v>45791.60163194445</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41373,7 +41373,7 @@
         <v>45791.64822916667</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41435,7 +41435,7 @@
         <v>45791.44717592592</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>45793.58898148148</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41554,7 +41554,7 @@
         <v>45792.6493287037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>45797.49787037037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41678,7 +41678,7 @@
         <v>44698</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>45797.49285879629</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45527.54472222222</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45442.64026620371</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>45797</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45797.67623842593</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45467.55809027778</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42092,7 +42092,7 @@
         <v>44776</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42154,7 +42154,7 @@
         <v>45798.58113425926</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         <v>45757</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45799.65690972222</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42335,7 +42335,7 @@
         <v>45643.28773148148</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42392,7 +42392,7 @@
         <v>45428.48818287037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42454,7 +42454,7 @@
         <v>45616.62708333333</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42511,7 +42511,7 @@
         <v>45805.5902199074</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42568,7 +42568,7 @@
         <v>45805.48078703704</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42625,7 +42625,7 @@
         <v>45272</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42682,7 +42682,7 @@
         <v>45811.57541666667</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42739,7 +42739,7 @@
         <v>45799.65251157407</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42801,7 +42801,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42858,7 +42858,7 @@
         <v>45810.61028935185</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42915,7 +42915,7 @@
         <v>45397</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42972,7 +42972,7 @@
         <v>45762.70567129629</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         <v>45812.55133101852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
